--- a/Income/GE_inc.xlsx
+++ b/Income/GE_inc.xlsx
@@ -1981,16 +1981,16 @@
         <v>0.2262</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>0.2328</v>
+        <v>0.2683</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>0.2446</v>
+        <v>0.2784</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>0.2636</v>
+        <v>0.2954</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>0.2658</v>
+        <v>0.2973</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>0.3013</v>
@@ -2111,13 +2111,13 @@
         <v>0.036</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>0.0464</v>
+        <v>0.0463</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>0.0854</v>
+        <v>0.0853</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>0.0977</v>
+        <v>0.0976</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>0.0938</v>
@@ -2241,7 +2241,7 @@
         <v>0.0504</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>0.0692</v>
+        <v>0.0691</v>
       </c>
       <c r="G17" s="0" t="n">
         <v>0.0121</v>
@@ -2362,16 +2362,16 @@
         <v>0.0639</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>0.0436</v>
+        <v>0.038</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>-0.0521</v>
+        <v>-0.0573</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>-0.0251</v>
+        <v>-0.0301</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>-0.0523</v>
+        <v>-0.0571</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>-0.0631</v>
@@ -2489,16 +2489,16 @@
         <v>0.023</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>0.0573</v>
+        <v>0.0572</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>0.0605</v>
+        <v>0.0604</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>0.063</v>
+        <v>0.0629</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>0.0673</v>
+        <v>0.0672</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>0.0969</v>
@@ -3888,16 +3888,16 @@
         <v>0.1068</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>0.1255</v>
+        <v>0.1275</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>0.1329</v>
+        <v>0.1348</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>0.1477</v>
+        <v>0.1494</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>0.1546</v>
+        <v>0.1564</v>
       </c>
       <c r="H30" s="0" t="n">
         <v>0.16</v>
@@ -4015,16 +4015,16 @@
         <v>0.045</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>0.0796</v>
+        <v>0.0795</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>0.0816</v>
+        <v>0.0815</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>0.0898</v>
+        <v>0.0896</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>0.0922</v>
+        <v>0.0921</v>
       </c>
       <c r="H31" s="0" t="n">
         <v>0.1238</v>
